--- a/data/income_statement/2digits/total/80_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/80_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>80-Security and investigation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>80-Security and investigation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2511736.10898</v>
@@ -959,73 +865,83 @@
         <v>3717873.9682</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4509736.294160001</v>
+        <v>4515102.738390001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5638004.12854</v>
+        <v>5640438.19417</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6963966.416650001</v>
+        <v>6973193.126680001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8580847.816889999</v>
+        <v>8622263.278140001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10837295.08384</v>
+        <v>10846949.83779</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13224839.81729</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12339162.5261</v>
+        <v>12391829.71137</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13445270.46009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13529037.88374</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15166613.326</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2444614.49503</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2902348.416089999</v>
+        <v>2902348.41609</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>3585856.39565</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4335749.074</v>
+        <v>4341115.51823</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5401309.32316</v>
+        <v>5403743.388790001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6710860.68595</v>
+        <v>6720087.39598</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8282175.606480001</v>
+        <v>8322699.735049999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10541080.30933</v>
+        <v>10550727.08794</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12835378.45902</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11957858.77283</v>
+        <v>12009585.23834</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13017520.05568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13100482.45079</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14574976.529</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>34957.98786</v>
@@ -1046,37 +962,42 @@
         <v>121292.24812</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>117982.50215</v>
+        <v>118055.31527</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>60943.61542</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>87346.32552000001</v>
+        <v>87346.32552</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>116633.46991</v>
+        <v>117492.9588</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>144492.369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>144618.97776</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>300819.297</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>32163.62609</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>42386.15126</v>
+        <v>42386.15126000001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>52485.6629</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>98357.28820000002</v>
+        <v>98357.28820000001</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>135731.60382</v>
@@ -1085,25 +1006,30 @@
         <v>131813.48258</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>180689.70826</v>
+        <v>181508.22782</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>235271.15909</v>
+        <v>235279.13443</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>302115.03275</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>264670.28336</v>
+        <v>264751.51423</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>283258.03541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>283936.45519</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>290817.5</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>10320.12741</v>
@@ -1115,40 +1041,45 @@
         <v>19129.57341</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>34817.46574</v>
+        <v>34817.46573999999</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>40832.6512</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>58509.91660999999</v>
+        <v>58509.91661</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>77853.48368</v>
+        <v>77876.22549</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>106775.85951</v>
+        <v>106892.71068</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>153888.34415</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>243378.47169</v>
+        <v>243416.04987</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>250721.53926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>251097.20937</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>277200.786</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5137.222390000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5202.7954</v>
+        <v>5202.795399999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>5857.11434</v>
@@ -1163,25 +1094,30 @@
         <v>21894.04552</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22938.23914</v>
+        <v>22960.66971</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>45897.68373</v>
+        <v>46013.77231</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>60926.38563</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>100016.33022</v>
+        <v>100044.92539</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>115049.66024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>115424.17446</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>184311.571</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4876.048239999999</v>
@@ -1202,25 +1138,30 @@
         <v>36110.04780000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>54137.88039</v>
+        <v>54137.88038999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>60326.71049</v>
+        <v>60327.01074000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>91299.79938999999</v>
+        <v>91299.79939</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>140901.52013</v>
+        <v>140910.50314</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>134694.38435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>134695.78625</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>92232.662</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>306.85678</v>
@@ -1241,10 +1182,10 @@
         <v>505.82329</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>777.3641499999998</v>
+        <v>777.6753899999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>551.4652899999999</v>
+        <v>551.92763</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1662.15913</v>
@@ -1253,13 +1194,18 @@
         <v>2460.62134</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>977.4946699999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>977.24866</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>656.553</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2501415.98157</v>
@@ -1271,34 +1217,39 @@
         <v>3698744.39479</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4474918.828419999</v>
+        <v>4480285.27265</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5597171.47734</v>
+        <v>5599605.54297</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6905456.50004</v>
+        <v>6914683.21007</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8502994.333210001</v>
+        <v>8544387.052649999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10730519.22433</v>
+        <v>10740057.12711</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13070951.47314</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12095784.05441</v>
+        <v>12148413.6615</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13194548.92083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13277940.67437</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14889412.54</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2069078.22683</v>
@@ -1310,76 +1261,86 @@
         <v>3111760.22531</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3709495.76554</v>
+        <v>3714525.43819</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4703357.02145</v>
+        <v>4705767.960719999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5872453.0393</v>
+        <v>5880621.1279</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7339915.19248</v>
+        <v>7377784.07796</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9324668.141299998</v>
+        <v>9333256.085520001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11438823.98545</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10384631.30141</v>
+        <v>10433570.38986</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11308982.65437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11388985.86403</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12746208.72</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>6367.9521</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>7735.69639</v>
+        <v>7735.696390000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8028.075769999999</v>
+        <v>8028.07577</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>31720.93967000001</v>
+        <v>31720.93967</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>28399.22407</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>74944.62242</v>
+        <v>74944.62241999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>59192.62566999999</v>
+        <v>59192.62567</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>54272.16884000001</v>
+        <v>54272.16884</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>58993.99059</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>61792.79062000001</v>
+        <v>63205.68036999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>71037.24403999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>74473.30182000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>222889.585</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>68322.57784999997</v>
+        <v>68322.57784999999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>76870.73768999999</v>
@@ -1391,31 +1352,36 @@
         <v>158375.74892</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>334432.21252</v>
+        <v>334432.9565200001</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>514905.76927</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>814290.18808</v>
+        <v>830690.72905</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>722214.22404</v>
+        <v>730423.8836599999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1203772.09068</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1050355.57834</v>
+        <v>1078668.63958</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>983259.3878199999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1001213.41798</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1149178.848</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1993844.63187</v>
@@ -1427,40 +1393,45 @@
         <v>2941695.16778</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3517415.09693</v>
+        <v>3522444.769580001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4339878.92832</v>
+        <v>4342289.12359</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5277217.20021</v>
+        <v>5285385.288810001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6448494.231330001</v>
+        <v>6469962.575840001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>8538972.99498</v>
+        <v>8539351.279580001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>10157353.99742</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9254745.792590002</v>
+        <v>9273958.930050001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10241552.86844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10300165.99016</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11359775.351</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>543.06501</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>530.00665</v>
+        <v>530.0066499999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>846.47596</v>
@@ -1472,7 +1443,7 @@
         <v>646.6565400000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5385.447399999999</v>
+        <v>5385.4474</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>17938.1474</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>13133.15407</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>14364.936</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>432337.75474</v>
@@ -1505,34 +1481,39 @@
         <v>586984.1694799999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>765423.06288</v>
+        <v>765759.8344599999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>893814.45589</v>
+        <v>893837.5822500001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1033003.46074</v>
+        <v>1034062.08217</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1163079.14073</v>
+        <v>1166602.97469</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1405851.08303</v>
+        <v>1406801.04159</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1632127.48769</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1711152.753</v>
+        <v>1714843.27164</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1885566.26646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1888954.81034</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2143203.82</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>327873.84823</v>
@@ -1544,34 +1525,39 @@
         <v>487950.30522</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>673178.4949100001</v>
+        <v>673631.6446999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>745787.4362400002</v>
+        <v>745787.53624</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>820950.9045800002</v>
+        <v>822131.63422</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>933779.07559</v>
+        <v>937008.0317700001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1126465.80752</v>
+        <v>1127467.7552</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1280062.20021</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1333839.09836</v>
+        <v>1340176.22888</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1514566.83422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1526289.8609</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1604245.553</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>68.46555000000001</v>
@@ -1595,7 +1581,7 @@
         <v>173.02294</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>540.15587</v>
+        <v>540.1558700000002</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>143.46184</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>3556.32854</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4844.982</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>34489.15506</v>
@@ -1619,7 +1610,7 @@
         <v>34551.08916</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>81968.45836999999</v>
+        <v>81968.45837000001</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>146756.00404</v>
@@ -1631,64 +1622,74 @@
         <v>134379.73506</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>165513.52225</v>
+        <v>165745.58231</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>179558.36444</v>
+        <v>180127.00206</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>218400.98228</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>263034.90127</v>
+        <v>263788.6602</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>304548.94637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>305233.21021</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>294390.76</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>293316.2276200001</v>
+        <v>293316.22762</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>322648.5457200001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>405083.9613200001</v>
+        <v>405083.9613199999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>526227.9530000001</v>
+        <v>526681.10279</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>613643.05559</v>
+        <v>613643.15559</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>686156.81759</v>
+        <v>687337.54723</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>768092.5303999999</v>
+        <v>771089.42652</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>946367.28721</v>
+        <v>946800.59727</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1061517.75609</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1067416.31527</v>
+        <v>1072999.68686</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1206461.55931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1217500.32215</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1305009.811</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>104463.90651</v>
@@ -1697,37 +1698,42 @@
         <v>91403.28783</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>99033.86426</v>
+        <v>99033.86426000002</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>92244.56796999999</v>
+        <v>92128.18975999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>148027.01965</v>
+        <v>148050.04601</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>212052.55616</v>
+        <v>211930.44795</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>229300.06514</v>
+        <v>229594.9429200001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>279385.2755100001</v>
+        <v>279333.28639</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>352065.28748</v>
+        <v>352065.2874799999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>377313.65464</v>
+        <v>374667.0427599999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>370999.43224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>362664.9494400001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>538958.267</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>28916.37364</v>
@@ -1745,28 +1751,33 @@
         <v>53591.58201999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>92599.49342999999</v>
+        <v>92599.49343</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>105018.09714</v>
+        <v>105170.0168</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>175431.085</v>
+        <v>175502.066</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>239237.65959</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>467065.11028</v>
+        <v>471001.4917600001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>297838.23029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>300987.02065</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>499285.109</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3209.34174</v>
@@ -1775,7 +1786,7 @@
         <v>2910.0632</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3585.484539999999</v>
+        <v>3585.48454</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>3436.8194</v>
@@ -1793,7 +1804,7 @@
         <v>3369.24698</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>970.0086600000002</v>
+        <v>970.00866</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>360.56473</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>1700</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8.183999999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1166.41054</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>787.2488300000001</v>
+        <v>787.24883</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>1666.41576</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>266.72308</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>730.764</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4442.652990000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4645.835319999999</v>
+        <v>4645.835320000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>6053.73021</v>
@@ -1865,25 +1886,30 @@
         <v>12959.10191</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20763.58431</v>
+        <v>20904.74181</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>22578.74876</v>
+        <v>22591.74374</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>33939.11266000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>48099.82604999999</v>
+        <v>48267.21527</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>72801.41931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>73280.95209999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>56549.124</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>12.71084</v>
@@ -1898,7 +1924,7 @@
         <v>19.12835</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>269.96778</v>
+        <v>269.9677799999999</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>88.41242</v>
@@ -1907,28 +1933,33 @@
         <v>57.01606</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>94.60048999999999</v>
+        <v>94.60049000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>54.72717000000001</v>
+        <v>54.72717</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>76.29663000000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>66.54381000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>151.84206</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>102.594</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1620.55187</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>523.43845</v>
+        <v>523.4384500000001</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1365.03193</v>
@@ -1955,19 +1986,24 @@
         <v>7494.7404</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>9813.646439999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9813.647440000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9894.58</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>235.95098</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>584.9597300000001</v>
+        <v>584.95973</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>6040.720550000001</v>
@@ -1982,7 +2018,7 @@
         <v>333.79955</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>979.57752</v>
+        <v>980.60659</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>899.4692700000001</v>
@@ -1994,13 +2030,18 @@
         <v>1832.31405</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1322.05031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1437.97472</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1948.111</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>8801.16734</v>
@@ -2021,25 +2062,30 @@
         <v>50853.05985999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>52220.60384999999</v>
+        <v>52220.93385</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>79387.05902000002</v>
+        <v>79437.18740000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>140924.25367</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>358302.5243399999</v>
+        <v>362046.97557</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>164396.86346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>166128.7086</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>374422.136</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.16583</v>
@@ -2072,13 +2118,18 @@
         <v>44.2315</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>40.93553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>40.93552999999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>188.6</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.26022</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>2.20001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>114.324</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>9421.16129</v>
@@ -2138,25 +2194,30 @@
         <v>19185.32206</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>13248.99784</v>
+        <v>13258.40093</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>31383.34422</v>
+        <v>31391.20186</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>39822.57634000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>47462.07545</v>
+        <v>47486.61648</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>47427.84834</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>48164.03711</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>55326.692</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>7796.10354</v>
@@ -2177,25 +2238,30 @@
         <v>33764.05284</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>51346.98128</v>
+        <v>51365.52635</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>60101.34492</v>
+        <v>60172.69345</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>59814.86941</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>154863.20403</v>
+        <v>156289.59692</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>102159.56159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>103596.86903</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>229019.904</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>223.82733</v>
@@ -2204,7 +2270,7 @@
         <v>214.24884</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>669.1208900000001</v>
+        <v>669.12089</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>852.8003500000001</v>
@@ -2219,22 +2285,27 @@
         <v>2147.1833</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>516.4653499999999</v>
+        <v>520.10961</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>955.82892</v>
+        <v>955.8289199999999</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>4044.54857</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2742.70724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2749.13866</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1616.514</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3044.23114</v>
@@ -2267,13 +2338,18 @@
         <v>16247.1643</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>35475.47629999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35475.4763</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>60022.762</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>96.54652</v>
@@ -2291,7 +2367,7 @@
         <v>12.56516</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>928.97954</v>
+        <v>928.9795399999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>193.48991</v>
@@ -2308,23 +2384,28 @@
       <c r="M39" s="48" t="n">
         <v>43.98721</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>30.467</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2934.25926</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3492.38952</v>
+        <v>3492.389520000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9185.159439999999</v>
+        <v>9185.159440000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9989.523620000002</v>
+        <v>9989.52362</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>8431.76505</v>
@@ -2333,25 +2414,30 @@
         <v>16880.18991</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>26945.82648</v>
+        <v>26956.71004</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>34350.73217</v>
+        <v>34418.43644</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>31156.36649</v>
+        <v>31156.36648999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>128001.31134</v>
+        <v>129427.70423</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>55014.28565999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>56444.5702</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>156328.763</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>22.12577</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>166.25503</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>31.403</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.16774</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>17.969</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1468.94578</v>
@@ -2438,7 +2534,7 @@
         <v>1212.89012</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3819.129060000001</v>
+        <v>3819.12906</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>3592.5446</v>
@@ -2450,25 +2546,30 @@
         <v>6181.60441</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7907.890290000001</v>
+        <v>7915.551800000001</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>6885.436729999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7531.731229999999</v>
+        <v>7531.73123</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6290.665319999999</v>
+        <v>6290.66532</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8716.85015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8717.441629999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10972.026</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>26783.90039</v>
@@ -2477,7 +2578,7 @@
         <v>24076.63172</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>56060.61249000001</v>
+        <v>56060.61248999999</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>61760.59742</v>
@@ -2486,28 +2587,33 @@
         <v>106824.27092</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>132810.52434</v>
+        <v>132817.48616</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>206075.12498</v>
+        <v>206185.12823</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>258393.99205</v>
+        <v>258402.54545</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>279417.09364</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>672630.20265</v>
+        <v>672868.35359</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>441209.29908</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>441670.06743</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>612656.76</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>24546.06009</v>
@@ -2525,28 +2631,33 @@
         <v>105973.8755</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>131758.72882</v>
+        <v>131765.69064</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>204803.33754</v>
+        <v>204913.34079</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>256517.70737</v>
+        <v>256526.26077</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>278047.56412</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>671043.1812199999</v>
+        <v>671281.33216</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>439627.0169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>440087.78525</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>612182.433</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2237.8403</v>
@@ -2561,7 +2672,7 @@
         <v>3956.3407</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>850.3954199999999</v>
+        <v>850.3954200000001</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>1051.79552</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>1582.28218</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>474.327</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>98800.27622</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>87663.28738000001</v>
+        <v>87663.28737999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>71322.64267999999</v>
+        <v>71322.64268</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>67971.37737</v>
+        <v>67854.99915999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>67059.02263999998</v>
+        <v>67082.049</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>138077.47241</v>
+        <v>137948.40238</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>76896.05601999997</v>
+        <v>77214.30514</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>136321.02354</v>
+        <v>136260.11349</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>252070.98402</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>16885.35823999999</v>
+        <v>16510.58401000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>125468.80186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>118385.03363</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>196566.712</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>12226.61355</v>
@@ -2636,34 +2757,39 @@
         <v>28069.91935</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19845.48418</v>
+        <v>19971.65134</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>26198.47314</v>
+        <v>26201.47314000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>39082.26327</v>
+        <v>39082.26334</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>33473.69773</v>
+        <v>33565.91086</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>59581.08935</v>
+        <v>59588.36128</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>65942.22650999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>85746.201</v>
+        <v>85813.83657000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>92897.27482000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>93885.06406999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>105082.118</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>139.98286</v>
@@ -2678,7 +2804,7 @@
         <v>159.14249</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>455.4513</v>
+        <v>455.4512999999999</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>489.01794</v>
@@ -2696,13 +2822,18 @@
         <v>1304.68784</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1108.05296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1417.07997</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>449.021</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>12086.63069</v>
@@ -2714,34 +2845,39 @@
         <v>27811.37285</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19686.34169</v>
+        <v>19812.50885</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>25743.02184</v>
+        <v>25746.02184</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>38593.24533</v>
+        <v>38593.2454</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>33153.10593</v>
+        <v>33245.31906</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>59390.25181999999</v>
+        <v>59397.52375</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>64339.4334</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>84441.51316</v>
+        <v>84509.14872999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>91789.22186000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>92467.98410000002</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>104633.097</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>19204.48957</v>
@@ -2759,28 +2895,33 @@
         <v>34366.44433</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>86762.54839</v>
+        <v>86765.77794999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>47809.87295</v>
+        <v>47896.93462</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>133346.35398</v>
+        <v>133355.08525</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>81257.81271</v>
+        <v>81257.81271000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>130686.67124</v>
+        <v>130743.61409</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>201712.31274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>202458.49879</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>123311.502</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>294.94899</v>
@@ -2789,7 +2930,7 @@
         <v>87.15161000000002</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>78.40560000000001</v>
+        <v>78.40559999999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>139.13867</v>
@@ -2798,7 +2939,7 @@
         <v>19.52575</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>65.34177000000001</v>
+        <v>65.34177</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>73.51308999999999</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>98.22059999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>169.727</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>497.16436</v>
@@ -2837,10 +2983,10 @@
         <v>3113.15616</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3425.81664</v>
+        <v>3425.998540000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1254.61795</v>
+        <v>1254.73035</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>2321.958</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>13462.4506</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>14939.035</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>18412.37622</v>
@@ -2876,67 +3027,77 @@
         <v>31233.76242</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>83271.38998000001</v>
+        <v>83274.43763999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>46481.74191</v>
+        <v>46568.69118</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>131015.6078</v>
+        <v>131024.33907</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>76715.14224999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>128510.54134</v>
+        <v>128567.48419</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>188151.64154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>188897.82759</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>108202.74</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>91822.40020000002</v>
+        <v>91822.40019999999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>79669.66043</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-31465.59857000001</v>
+        <v>-31465.59857</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>56468.03591000001</v>
+        <v>56477.82486</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>58891.05145000001</v>
+        <v>58917.07781</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>90397.18728999996</v>
+        <v>90264.88777</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>62559.8808</v>
+        <v>62883.28138</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>62555.75890999999</v>
+        <v>62493.38952000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>236755.39782</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-28055.11200000002</v>
+        <v>-28419.19351000002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>16653.76394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9811.598909999997</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>178337.328</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>20809.85179</v>
@@ -2948,34 +3109,39 @@
         <v>25725.82233</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>28471.91744</v>
+        <v>28473.87523</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>34032.72343</v>
+        <v>34037.40463</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>44473.22014</v>
+        <v>44477.7454</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>52858.6625</v>
+        <v>52925.90995</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>60905.61566999999</v>
+        <v>60913.86596</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>67432.64705</v>
+        <v>67432.64705000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>82319.95655</v>
+        <v>83024.23725999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>83223.34078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>84258.75681000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>124105.181</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>71012.54841000002</v>
@@ -2984,34 +3150,37 @@
         <v>58603.37297</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-57191.4209</v>
+        <v>-57191.42089999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>27996.11847</v>
+        <v>28003.94963</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>24858.32802000001</v>
+        <v>24879.67318000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>45923.96715000001</v>
+        <v>45787.14237</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9701.218300000006</v>
+        <v>9957.371429999996</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1650.143240000004</v>
+        <v>1579.523559999999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>169322.75077</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-110375.06855</v>
+        <v>-111443.43077</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-66569.57684000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-74447.15790000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>54232.147</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1614</v>
@@ -3038,34 +3210,37 @@
         <v>1723</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2420</v>
+        <v>2425</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2591</v>
+        <v>2611</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2723</v>
+        <v>2732</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2950</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2922</v>
+        <v>3030</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3008</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>